--- a/doc/data/vast.xlsx
+++ b/doc/data/vast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/doc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/afsc-assessments/ebs_pollock_safe/doc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCF5545-C63E-2648-AAB7-8CD8F3A1C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80358B22-C19B-194D-8E4A-879F2C097512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="960" windowWidth="34260" windowHeight="21380"/>
+    <workbookView xWindow="2080" yWindow="-21100" windowWidth="34260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vast" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -613,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -653,7 +653,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -759,7 +759,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -901,18 +901,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1982</v>
       </c>
@@ -960,25 +960,25 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3871904477</v>
+        <v>3871045939.21559</v>
       </c>
       <c r="E2">
-        <v>9.4004610000000002E-2</v>
+        <v>9.3784959023112804E-2</v>
       </c>
       <c r="F2">
-        <v>281285443.30000001</v>
+        <v>281135692.127069</v>
       </c>
       <c r="G2">
         <f>RANK(D2,$D$2:$D$42)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <f>D2/AVERAGE($D$2:$D$42)-1</f>
-        <v>-0.43591363126929716</v>
+        <v>-0.43910689116852375</v>
       </c>
       <c r="I2">
         <f>AVERAGE($D$2:$D$42)</f>
-        <v>6864027729.8536587</v>
+        <v>6901575145.5393066</v>
       </c>
       <c r="J2">
         <v>3871.904477</v>
@@ -987,8 +987,14 @@
         <f>RANK(J2,$J$2:$J$42)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>281135692.127069</v>
+      </c>
+      <c r="N2">
+        <v>9.3784959023112804E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1983</v>
       </c>
@@ -999,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>8929334154</v>
+        <v>8918551101.6250992</v>
       </c>
       <c r="E3">
-        <v>8.5072753000000001E-2</v>
+        <v>8.47210236250064E-2</v>
       </c>
       <c r="F3">
-        <v>576034476.70000005</v>
+        <v>574069303.50232995</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G42" si="0">RANK(D3,$D$2:$D$42)</f>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H42" si="1">D3/AVERAGE($D$2:$D$42)-1</f>
-        <v>0.30088841499921704</v>
+        <v>0.29224864086127122</v>
       </c>
       <c r="J3">
         <v>8929.3341540000001</v>
@@ -1022,8 +1028,14 @@
         <f t="shared" ref="K3:K42" si="2">RANK(J3,$J$2:$J$42)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>574069303.50232995</v>
+      </c>
+      <c r="N3">
+        <v>8.47210236250064E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1984</v>
       </c>
@@ -1034,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6594167572</v>
+        <v>6575015166.6915903</v>
       </c>
       <c r="E4">
-        <v>8.7895218999999997E-2</v>
+        <v>8.75656334997547E-2</v>
       </c>
       <c r="F4">
-        <v>440670511.10000002</v>
+        <v>438609374.65041298</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -1048,7 +1060,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-3.9315132233507466E-2</v>
+        <v>-4.7316731609998053E-2</v>
       </c>
       <c r="J4">
         <v>6594.1675720000003</v>
@@ -1057,8 +1069,14 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>438609374.65041298</v>
+      </c>
+      <c r="N4">
+        <v>8.75656334997547E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -1069,13 +1087,13 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>7522248698</v>
+        <v>7504611645.2711096</v>
       </c>
       <c r="E5">
-        <v>9.9385067999999993E-2</v>
+        <v>9.8640501144544104E-2</v>
       </c>
       <c r="F5">
-        <v>561621239.79999995</v>
+        <v>557253013.30863094</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1083,7 +1101,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>9.589427578847709E-2</v>
+        <v>8.7376647651451478E-2</v>
       </c>
       <c r="J5">
         <v>7522.2486980000003</v>
@@ -1092,8 +1110,14 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>557253013.30863094</v>
+      </c>
+      <c r="N5">
+        <v>9.8640501144544104E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1986</v>
       </c>
@@ -1104,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>7242320955</v>
+        <v>7235877522.6439896</v>
       </c>
       <c r="E6">
-        <v>9.6457255000000006E-2</v>
+        <v>9.6250237551429099E-2</v>
       </c>
       <c r="F6">
-        <v>526889600.19999999</v>
+        <v>526325686.80632401</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1118,7 +1142,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>5.5112426702624395E-2</v>
+        <v>4.8438562220213255E-2</v>
       </c>
       <c r="J6">
         <v>7242.3209550000001</v>
@@ -1127,8 +1151,14 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>526325686.80632401</v>
+      </c>
+      <c r="N6">
+        <v>9.6250237551429099E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1987</v>
       </c>
@@ -1139,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>7597541230</v>
+        <v>7576038970.77701</v>
       </c>
       <c r="E7">
-        <v>0.10288122500000001</v>
+        <v>0.10234986666915399</v>
       </c>
       <c r="F7">
-        <v>598324797.5</v>
+        <v>594569688.25477898</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1153,7 +1183,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.10686342319919206</v>
+        <v>9.7726071369900191E-2</v>
       </c>
       <c r="J7">
         <v>7597.5412299999998</v>
@@ -1162,8 +1192,14 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>594569688.25477898</v>
+      </c>
+      <c r="N7">
+        <v>0.10234986666915399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1988</v>
       </c>
@@ -1174,13 +1210,13 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>11808276917</v>
+        <v>11799525039.277901</v>
       </c>
       <c r="E8">
-        <v>0.106278494</v>
+        <v>0.10594596046416201</v>
       </c>
       <c r="F8">
-        <v>967753498.89999998</v>
+        <v>965781527.74692202</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1188,7 +1224,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.7203131137775507</v>
+        <v>0.70968580221926358</v>
       </c>
       <c r="J8">
         <v>11808.27692</v>
@@ -1197,8 +1233,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>965781527.74692202</v>
+      </c>
+      <c r="N8">
+        <v>0.10594596046416201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1989</v>
       </c>
@@ -1209,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>9944250176</v>
+        <v>9942601904.7586002</v>
       </c>
       <c r="E9">
-        <v>9.0622569E-2</v>
+        <v>9.0355065855204295E-2</v>
       </c>
       <c r="F9">
-        <v>697501932.89999998</v>
+        <v>696621677.75785398</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1223,7 +1265,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.44874854347536441</v>
+        <v>0.44062792842077503</v>
       </c>
       <c r="J9">
         <v>9944.2501759999996</v>
@@ -1232,8 +1274,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>696621677.75785398</v>
+      </c>
+      <c r="N9">
+        <v>9.0355065855204295E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1990</v>
       </c>
@@ -1244,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>11590623013</v>
+        <v>11581253529.459299</v>
       </c>
       <c r="E10">
-        <v>0.110565372</v>
+        <v>0.110211234090692</v>
       </c>
       <c r="F10">
-        <v>992306368.89999998</v>
+        <v>990087296.066939</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1258,7 +1306,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.68860375703160392</v>
+        <v>0.67805946979286436</v>
       </c>
       <c r="J10">
         <v>11590.623009999999</v>
@@ -1267,8 +1315,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>990087296.066939</v>
+      </c>
+      <c r="N10">
+        <v>0.110211234090692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1991</v>
       </c>
@@ -1279,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7139777773</v>
+        <v>7129587182.0630903</v>
       </c>
       <c r="E11">
-        <v>8.9396970000000006E-2</v>
+        <v>8.9005635898273497E-2</v>
       </c>
       <c r="F11">
-        <v>488284939.89999998</v>
+        <v>486419218.10940301</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1293,7 +1347,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>4.0173212288613591E-2</v>
+        <v>3.303768077801128E-2</v>
       </c>
       <c r="J11">
         <v>7139.7777729999998</v>
@@ -1302,8 +1356,14 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>486419218.10940301</v>
+      </c>
+      <c r="N11">
+        <v>8.9005635898273497E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1992</v>
       </c>
@@ -1314,13 +1374,13 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6657655289</v>
+        <v>6643437095.9852695</v>
       </c>
       <c r="E12">
-        <v>9.0798680000000007E-2</v>
+        <v>9.0410748487177603E-2</v>
       </c>
       <c r="F12">
-        <v>460639638.30000001</v>
+        <v>458542058.312114</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1328,7 +1388,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-3.0065793580070332E-2</v>
+        <v>-3.7402773151123281E-2</v>
       </c>
       <c r="J12">
         <v>6657.6552890000003</v>
@@ -1337,8 +1397,14 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>458542058.312114</v>
+      </c>
+      <c r="N12">
+        <v>9.0410748487177603E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1993</v>
       </c>
@@ -1349,13 +1415,13 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>7860148450</v>
+        <v>7849269926.8002901</v>
       </c>
       <c r="E13">
-        <v>8.3141652999999996E-2</v>
+        <v>8.2841272338747093E-2</v>
       </c>
       <c r="F13">
-        <v>500857339.69999999</v>
+        <v>499253356.66585898</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1363,7 +1429,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.14512189626127547</v>
+        <v>0.1373157230452684</v>
       </c>
       <c r="J13">
         <v>7860.1484499999997</v>
@@ -1372,8 +1438,14 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>499253356.66585898</v>
+      </c>
+      <c r="N13">
+        <v>8.2841272338747093E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1994</v>
       </c>
@@ -1384,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>7106737583</v>
+        <v>7094434901.7434998</v>
       </c>
       <c r="E14">
-        <v>8.5811792999999997E-2</v>
+        <v>8.5561194268217206E-2</v>
       </c>
       <c r="F14">
-        <v>465632744.60000002</v>
+        <v>464278431.79476303</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1398,7 +1470,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>3.5359684240598988E-2</v>
+        <v>2.7944310123007909E-2</v>
       </c>
       <c r="J14">
         <v>7106.7375830000001</v>
@@ -1407,8 +1479,14 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>464278431.79476303</v>
+      </c>
+      <c r="N14">
+        <v>8.5561194268217206E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1995</v>
       </c>
@@ -1419,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>6614407128</v>
+        <v>6597187752.0908298</v>
       </c>
       <c r="E15">
-        <v>0.10733772599999999</v>
+        <v>0.106810116006557</v>
       </c>
       <c r="F15">
-        <v>549973195.79999995</v>
+        <v>546780400.29673398</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1433,7 +1511,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-3.6366490882311808E-2</v>
+        <v>-4.4104046834179789E-2</v>
       </c>
       <c r="J15">
         <v>6614.4071279999998</v>
@@ -1442,8 +1520,14 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>546780400.29673398</v>
+      </c>
+      <c r="N15">
+        <v>0.106810116006557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1996</v>
       </c>
@@ -1454,21 +1538,21 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3953021760</v>
+        <v>3954255279.6647301</v>
       </c>
       <c r="E16">
-        <v>7.9221229000000004E-2</v>
+        <v>7.9142091884054605E-2</v>
       </c>
       <c r="F16">
-        <v>241860392.59999999</v>
+        <v>242123546.424494</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-0.4240958930268951</v>
+        <v>-0.42705031876375599</v>
       </c>
       <c r="J16">
         <v>3953.0217600000001</v>
@@ -1477,8 +1561,14 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>242123546.424494</v>
+      </c>
+      <c r="N16">
+        <v>7.9142091884054605E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1997</v>
       </c>
@@ -1489,21 +1579,21 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>4381292192</v>
+        <v>4371517782.48491</v>
       </c>
       <c r="E17">
-        <v>8.1314353000000006E-2</v>
+        <v>8.0879898632602504E-2</v>
       </c>
       <c r="F17">
-        <v>276847587.69999999</v>
+        <v>275237504.52787203</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-0.36170243413433745</v>
+        <v>-0.36659129397289081</v>
       </c>
       <c r="J17">
         <v>4381.2921919999999</v>
@@ -1512,8 +1602,14 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>275237504.52787203</v>
+      </c>
+      <c r="N17">
+        <v>8.0879898632602504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1524,21 +1620,21 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>3426315553</v>
+        <v>3417606809.2388</v>
       </c>
       <c r="E18">
-        <v>8.0536903000000007E-2</v>
+        <v>8.02765802816746E-2</v>
       </c>
       <c r="F18">
-        <v>209926551.30000001</v>
+        <v>209091118.85406101</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.50083017029521104</v>
+        <v>-0.50480770879562176</v>
       </c>
       <c r="J18">
         <v>3426.3155529999999</v>
@@ -1547,8 +1643,14 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>209091118.85406101</v>
+      </c>
+      <c r="N18">
+        <v>8.02765802816746E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -1559,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>5620746253</v>
+        <v>5613644193.0652599</v>
       </c>
       <c r="E19">
-        <v>9.5941117000000006E-2</v>
+        <v>9.5736998987434804E-2</v>
       </c>
       <c r="F19">
-        <v>402758905.19999999</v>
+        <v>401897623.59693098</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -1573,7 +1675,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-0.18113001954322894</v>
+        <v>-0.18661405915524587</v>
       </c>
       <c r="J19">
         <v>5620.7462530000003</v>
@@ -1582,8 +1684,14 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>401897623.59693098</v>
+      </c>
+      <c r="N19">
+        <v>9.5736998987434804E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -1594,13 +1702,13 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>7251135051</v>
+        <v>7246347744.9410896</v>
       </c>
       <c r="E20">
-        <v>9.2139629000000001E-2</v>
+        <v>9.2106319784516902E-2</v>
       </c>
       <c r="F20">
-        <v>511173298.10000002</v>
+        <v>511598456.35898399</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -1608,7 +1716,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>5.6396526410098735E-2</v>
+        <v>4.9955639420172115E-2</v>
       </c>
       <c r="J20">
         <v>7251.1350510000002</v>
@@ -1617,8 +1725,14 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>511598456.35898399</v>
+      </c>
+      <c r="N20">
+        <v>9.2106319784516902E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2001</v>
       </c>
@@ -1629,13 +1743,13 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>6079544332</v>
+        <v>6066569820.0258703</v>
       </c>
       <c r="E21">
-        <v>8.5972868999999993E-2</v>
+        <v>8.5795174695558293E-2</v>
       </c>
       <c r="F21">
-        <v>399931844.19999999</v>
+        <v>398990120.52771002</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -1643,7 +1757,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.1142890775982317</v>
+        <v>-0.1209876452700982</v>
       </c>
       <c r="J21">
         <v>6079.5443320000004</v>
@@ -1652,8 +1766,14 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>398990120.52771002</v>
+      </c>
+      <c r="N21">
+        <v>8.5795174695558293E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2002</v>
       </c>
@@ -1664,13 +1784,13 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>6755613734</v>
+        <v>6740603163.1480799</v>
       </c>
       <c r="E22">
-        <v>7.5562419000000006E-2</v>
+        <v>7.5213354348453207E-2</v>
       </c>
       <c r="F22">
-        <v>394635083.80000001</v>
+        <v>392631351.633232</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -1678,7 +1798,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-1.5794516007290427E-2</v>
+        <v>-2.3323948373621284E-2</v>
       </c>
       <c r="J22">
         <v>6755.6137339999996</v>
@@ -1687,8 +1807,14 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>392631351.633232</v>
+      </c>
+      <c r="N22">
+        <v>7.5213354348453207E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2003</v>
       </c>
@@ -1699,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>11270326398</v>
+        <v>11239162930.073999</v>
       </c>
       <c r="E23">
-        <v>9.0192677999999998E-2</v>
+        <v>8.97236153303895E-2</v>
       </c>
       <c r="F23">
-        <v>773694270.10000002</v>
+        <v>769003046.39106905</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -1713,7 +1839,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.64194068578453778</v>
+        <v>0.62849243731529958</v>
       </c>
       <c r="J23">
         <v>11270.3264</v>
@@ -1722,8 +1848,14 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>769003046.39106905</v>
+      </c>
+      <c r="N23">
+        <v>8.97236153303895E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -1734,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>5492307441</v>
+        <v>5499954999.4248104</v>
       </c>
       <c r="E24">
-        <v>8.2738823000000003E-2</v>
+        <v>8.2660280017488694E-2</v>
       </c>
       <c r="F24">
-        <v>346731017.89999998</v>
+        <v>347547622.37497097</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -1748,7 +1880,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-0.19984189208438752</v>
+        <v>-0.20308699341199021</v>
       </c>
       <c r="J24">
         <v>5492.3074409999999</v>
@@ -1757,8 +1889,14 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>347547622.37497097</v>
+      </c>
+      <c r="N24">
+        <v>8.2660280017488694E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -1769,13 +1907,13 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>6986224423</v>
+        <v>6972381231.31392</v>
       </c>
       <c r="E25">
-        <v>8.7248639000000003E-2</v>
+        <v>8.6910164525087097E-2</v>
       </c>
       <c r="F25">
-        <v>466103293.10000002</v>
+        <v>464205170.75359797</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -1783,7 +1921,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>1.7802476615132568E-2</v>
+        <v>1.0259409523400986E-2</v>
       </c>
       <c r="J25">
         <v>6986.2244229999997</v>
@@ -1792,8 +1930,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>464205170.75359797</v>
+      </c>
+      <c r="N25">
+        <v>8.6910164525087097E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2006</v>
       </c>
@@ -1804,21 +1948,21 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>4193387574</v>
+        <v>4190345627.39112</v>
       </c>
       <c r="E26">
-        <v>8.4361617999999999E-2</v>
+        <v>8.4156556530328705E-2</v>
       </c>
       <c r="F26">
-        <v>272030065.69999999</v>
+        <v>271599772.93164903</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-0.38907770495131677</v>
+        <v>-0.39284213545085211</v>
       </c>
       <c r="J26">
         <v>4193.3875740000003</v>
@@ -1827,8 +1971,14 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>271599772.93164903</v>
+      </c>
+      <c r="N26">
+        <v>8.4156556530328705E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2007</v>
       </c>
@@ -1839,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>6782909423</v>
+        <v>6777452269.9015303</v>
       </c>
       <c r="E27">
-        <v>0.106344225</v>
+        <v>0.106006877929406</v>
       </c>
       <c r="F27">
-        <v>543579848.89999998</v>
+        <v>542322085.42816806</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -1853,7 +2003,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-1.1817887404628524E-2</v>
+        <v>-1.7984716969719705E-2</v>
       </c>
       <c r="J27">
         <v>6782.9094230000001</v>
@@ -1862,8 +2012,14 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>542322085.42816806</v>
+      </c>
+      <c r="N27">
+        <v>0.106006877929406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -1874,21 +2030,21 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>4294713326</v>
+        <v>4293260989.8467598</v>
       </c>
       <c r="E28">
-        <v>0.10410359800000001</v>
+        <v>0.10377649916062</v>
       </c>
       <c r="F28">
-        <v>335692293.39999998</v>
+        <v>335084724.05615801</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-0.37431585433126402</v>
+        <v>-0.37793026963973264</v>
       </c>
       <c r="J28">
         <v>4294.7133260000001</v>
@@ -1897,8 +2053,14 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>335084724.05615801</v>
+      </c>
+      <c r="N28">
+        <v>0.10377649916062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -1909,21 +2071,21 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>2825222799</v>
+        <v>2820215503.2704301</v>
       </c>
       <c r="E29">
-        <v>0.10603637</v>
+        <v>0.105559935257454</v>
       </c>
       <c r="F29">
-        <v>228881911.09999999</v>
+        <v>227816121.98240301</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-0.58840160468579084</v>
+        <v>-0.59136639914828437</v>
       </c>
       <c r="J29">
         <v>2825.2227990000001</v>
@@ -1932,8 +2094,14 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>227816121.98240301</v>
+      </c>
+      <c r="N29">
+        <v>0.105559935257454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -1944,13 +2112,13 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>5286569140</v>
+        <v>5271619716.6273003</v>
       </c>
       <c r="E30">
-        <v>0.101579525</v>
+        <v>0.10143582486578</v>
       </c>
       <c r="F30">
-        <v>413216402.5</v>
+        <v>412135557.67947602</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -1958,7 +2126,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-0.2298152996953714</v>
+        <v>-0.23617151078409904</v>
       </c>
       <c r="J30">
         <v>5286.5691399999996</v>
@@ -1967,8 +2135,14 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>412135557.67947602</v>
+      </c>
+      <c r="N30">
+        <v>0.10143582486578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2011</v>
       </c>
@@ -1979,21 +2153,21 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>4509684400</v>
+        <v>4505989344.7997704</v>
       </c>
       <c r="E31">
-        <v>9.4387481999999995E-2</v>
+        <v>9.4138688983904595E-2</v>
       </c>
       <c r="F31">
-        <v>321009957.30000001</v>
+        <v>320496099.613015</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-0.34299735119278918</v>
+        <v>-0.3471071096411773</v>
       </c>
       <c r="J31">
         <v>4509.6844000000001</v>
@@ -2002,8 +2176,14 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>320496099.613015</v>
+      </c>
+      <c r="N31">
+        <v>9.4138688983904595E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2012</v>
       </c>
@@ -2014,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>5158553024</v>
+        <v>5144393305.6856699</v>
       </c>
       <c r="E32">
-        <v>8.6270447E-2</v>
+        <v>8.5826406726087406E-2</v>
       </c>
       <c r="F32">
-        <v>334317970.80000001</v>
+        <v>332153429.90911198</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -2028,7 +2208,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-0.24846559090023079</v>
+        <v>-0.25460591282402478</v>
       </c>
       <c r="J32">
         <v>5158.5530239999998</v>
@@ -2037,8 +2217,14 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>332153429.90911198</v>
+      </c>
+      <c r="N32">
+        <v>8.5826406726087406E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -2049,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="D33">
-        <v>6739944546</v>
+        <v>6712589765.9119101</v>
       </c>
       <c r="E33">
-        <v>8.4797331000000004E-2</v>
+        <v>8.4421544165770704E-2</v>
       </c>
       <c r="F33">
-        <v>437497588</v>
+        <v>434540294.27727902</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -2063,7 +2249,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-1.8077313894578895E-2</v>
+        <v>-2.7382934423244465E-2</v>
       </c>
       <c r="J33">
         <v>6739.9445459999997</v>
@@ -2072,8 +2258,14 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>434540294.27727902</v>
+      </c>
+      <c r="N33">
+        <v>8.4421544165770704E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -2084,13 +2276,13 @@
         <v>7</v>
       </c>
       <c r="D34">
-        <v>11648294978</v>
+        <v>11616510600.616301</v>
       </c>
       <c r="E34">
-        <v>7.3843626999999995E-2</v>
+        <v>7.3587705752388696E-2</v>
       </c>
       <c r="F34">
-        <v>654674179.5</v>
+        <v>651812574.90089202</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
@@ -2098,7 +2290,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>0.69700581589118116</v>
+        <v>0.68316802405960853</v>
       </c>
       <c r="J34">
         <v>11648.294980000001</v>
@@ -2107,8 +2299,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>651812574.90089202</v>
+      </c>
+      <c r="N34">
+        <v>7.3587705752388696E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2119,13 +2317,13 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>11235459102</v>
+        <v>11215706852.6644</v>
       </c>
       <c r="E35">
-        <v>8.0516581000000004E-2</v>
+        <v>8.02068311880164E-2</v>
       </c>
       <c r="F35">
-        <v>673139876.5</v>
+        <v>670476000.33835196</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
@@ -2133,7 +2331,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0.63686097204032421</v>
+        <v>0.62509378165844431</v>
       </c>
       <c r="J35">
         <v>11235.4591</v>
@@ -2142,8 +2340,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <v>670476000.33835196</v>
+      </c>
+      <c r="N35">
+        <v>8.02068311880164E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -2154,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>8282279457</v>
+        <v>8274508700.4769897</v>
       </c>
       <c r="E36">
-        <v>9.5714210999999993E-2</v>
+        <v>9.5626907344524198E-2</v>
       </c>
       <c r="F36">
-        <v>575632130.39999998</v>
+        <v>575771459.89921701</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
@@ -2168,7 +2372,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>0.20662092039313174</v>
+        <v>0.19893046529023906</v>
       </c>
       <c r="J36">
         <v>8282.2794570000005</v>
@@ -2177,8 +2381,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>575771459.89921701</v>
+      </c>
+      <c r="N36">
+        <v>9.5626907344524198E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -2189,13 +2399,13 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <v>8873863135</v>
+        <v>8855042158.3094997</v>
       </c>
       <c r="E37">
-        <v>6.7023238999999998E-2</v>
+        <v>6.6907974775736595E-2</v>
       </c>
       <c r="F37">
-        <v>452646947.89999998</v>
+        <v>451643226.68984097</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -2203,7 +2413,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>0.29280700548527516</v>
+        <v>0.28304654684992836</v>
       </c>
       <c r="J37">
         <v>8873.8631349999996</v>
@@ -2212,8 +2422,14 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>451643226.68984097</v>
+      </c>
+      <c r="N37">
+        <v>6.6907974775736595E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2224,21 +2440,21 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>4258426160</v>
+        <v>4266875365.8448601</v>
       </c>
       <c r="E38">
-        <v>9.1538758999999997E-2</v>
+        <v>9.1367100380147601E-2</v>
       </c>
       <c r="F38">
-        <v>289331588.19999999</v>
+        <v>289692534.64124101</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>-0.37960242475728023</v>
+        <v>-0.38175340036648464</v>
       </c>
       <c r="J38">
         <v>4258.42616</v>
@@ -2247,8 +2463,14 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>289692534.64124101</v>
+      </c>
+      <c r="N38">
+        <v>9.1367100380147601E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -2259,13 +2481,13 @@
         <v>7</v>
       </c>
       <c r="D39">
-        <v>9288150997</v>
+        <v>9257419352.4174595</v>
       </c>
       <c r="E39">
-        <v>6.6955753000000007E-2</v>
+        <v>6.6789703189377797E-2</v>
       </c>
       <c r="F39">
-        <v>466431714.60000002</v>
+        <v>464460420.55314702</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
@@ -2273,7 +2495,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>0.35316338490346166</v>
+        <v>0.34134877288133358</v>
       </c>
       <c r="J39">
         <v>9288.1509970000006</v>
@@ -2282,10 +2504,16 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>464460420.55314702</v>
+      </c>
+      <c r="N39">
+        <v>6.6789703189377797E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -2293,22 +2521,13 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>4885528518</v>
-      </c>
-      <c r="E40">
-        <v>7.1458356000000001E-2</v>
-      </c>
-      <c r="F40">
-        <v>261259096.69999999</v>
-      </c>
-      <c r="G40">
+      <c r="G40" t="e">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>#N/A</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-0.28824172770290368</v>
+        <v>-1</v>
       </c>
       <c r="J40">
         <v>4885.5285180000001</v>
@@ -2318,9 +2537,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -2329,21 +2548,21 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>6531971394</v>
+        <v>4889162547.3321304</v>
       </c>
       <c r="E41">
-        <v>7.6478849000000002E-2</v>
+        <v>7.1673783513004893E-2</v>
       </c>
       <c r="F41">
-        <v>383483384.10000002</v>
+        <v>262578971.22424501</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-4.8376310370869979E-2</v>
+        <v>-0.2915874355882162</v>
       </c>
       <c r="J41">
         <v>6531.9713940000001</v>
@@ -2352,10 +2571,16 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>262578971.22424501</v>
+      </c>
+      <c r="N41">
+        <v>7.1673783513004893E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -2364,21 +2589,21 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>4934258399</v>
+        <v>6531432088.6915302</v>
       </c>
       <c r="E42">
-        <v>7.6352661000000002E-2</v>
+        <v>7.6427509501792404E-2</v>
       </c>
       <c r="F42">
-        <v>283033978.5</v>
+        <v>383793520.640643</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-0.28114241474586843</v>
+        <v>-5.3631678137564087E-2</v>
       </c>
       <c r="J42">
         <v>4934.2583990000003</v>
@@ -2387,58 +2612,76 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>383793520.640643</v>
+      </c>
+      <c r="N42">
+        <v>7.6427509501792404E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1982</v>
+        <v>2023</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>3856161819</v>
+        <v>4945387531.0138798</v>
       </c>
       <c r="E43">
-        <v>9.4178966000000003E-2</v>
+        <v>7.5747693190002893E-2</v>
       </c>
       <c r="F43">
-        <v>280988144</v>
+        <v>282470377.70062</v>
       </c>
       <c r="G43">
         <f>RANK(D43,$D$43:$D$83)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>282470377.70062</v>
+      </c>
+      <c r="N43">
+        <v>7.5747693190002893E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1983</v>
+        <v>2024</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>8846200125</v>
+        <v>9407463570.8955994</v>
       </c>
       <c r="E44">
-        <v>8.5194239000000005E-2</v>
+        <v>0.103743302310412</v>
       </c>
       <c r="F44">
-        <v>572744797.89999998</v>
+        <v>723628499.80229402</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44:G107" si="3">RANK(D44,$D$43:$D$83)</f>
+        <f t="shared" ref="G44:G83" si="3">RANK(D44,$D$43:$D$83)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>723628499.80229402</v>
+      </c>
+      <c r="N44">
+        <v>0.103743302310412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -2447,22 +2690,28 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>6577231553</v>
+        <v>3855335073.2890401</v>
       </c>
       <c r="E45">
-        <v>8.7955041999999997E-2</v>
+        <v>9.3959675192678296E-2</v>
       </c>
       <c r="F45">
-        <v>440181159.5</v>
+        <v>280840137.66784501</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="M45">
+        <v>280840137.66784501</v>
+      </c>
+      <c r="N45">
+        <v>9.3959675192678296E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -2471,22 +2720,28 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>7462131255</v>
+        <v>8835463675.9451504</v>
       </c>
       <c r="E46">
-        <v>9.9617461000000004E-2</v>
+        <v>8.4843082860576596E-2</v>
       </c>
       <c r="F46">
-        <v>559449097.10000002</v>
+        <v>570793171.78738797</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <v>570793171.78738797</v>
+      </c>
+      <c r="N46">
+        <v>8.4843082860576596E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -2495,22 +2750,28 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>7203091139</v>
+        <v>6557901006.31145</v>
       </c>
       <c r="E47">
-        <v>9.6611838000000005E-2</v>
+        <v>8.7625839701751196E-2</v>
       </c>
       <c r="F47">
-        <v>525749671.39999998</v>
+        <v>438113760.64959103</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>438113760.64959103</v>
+      </c>
+      <c r="N47">
+        <v>8.7625839701751196E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2519,22 +2780,28 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <v>7524949318</v>
+        <v>7444262220.86516</v>
       </c>
       <c r="E48">
-        <v>0.10329453800000001</v>
+        <v>9.8872808245174901E-2</v>
       </c>
       <c r="F48">
-        <v>596572167.60000002</v>
+        <v>555084804.54318798</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>555084804.54318798</v>
+      </c>
+      <c r="N48">
+        <v>9.8872808245174901E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -2543,22 +2810,28 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <v>11693251764</v>
+        <v>7196343604.66924</v>
       </c>
       <c r="E49">
-        <v>0.10717329</v>
+        <v>9.6406905096231704E-2</v>
       </c>
       <c r="F49">
-        <v>967379723.29999995</v>
+        <v>525180102.10791498</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>525180102.10791498</v>
+      </c>
+      <c r="N49">
+        <v>9.6406905096231704E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -2567,22 +2840,28 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>9874671011</v>
+        <v>7502906569.3956404</v>
       </c>
       <c r="E50">
-        <v>9.0949495000000005E-2</v>
+        <v>0.10276481772895001</v>
       </c>
       <c r="F50">
-        <v>696353306.39999998</v>
+        <v>592794990.49396503</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M50">
+        <v>592794990.49396503</v>
+      </c>
+      <c r="N50">
+        <v>0.10276481772895001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -2591,22 +2870,28 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>11563717123</v>
+        <v>11685345591.766701</v>
       </c>
       <c r="E51">
-        <v>0.11071608600000001</v>
+        <v>0.106832688690815</v>
       </c>
       <c r="F51">
-        <v>991983587</v>
+        <v>965413277.05129802</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>965413277.05129802</v>
+      </c>
+      <c r="N51">
+        <v>0.106832688690815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -2615,22 +2900,28 @@
         <v>8</v>
       </c>
       <c r="D52">
-        <v>7114869712</v>
+        <v>9872747516.8482094</v>
       </c>
       <c r="E52">
-        <v>8.9581337999999996E-2</v>
+        <v>9.0682866193125503E-2</v>
       </c>
       <c r="F52">
-        <v>487982675.30000001</v>
+        <v>695467598.51747894</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>695467598.51747894</v>
+      </c>
+      <c r="N52">
+        <v>9.0682866193125503E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2639,22 +2930,28 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <v>6639266230</v>
+        <v>11554181680.554199</v>
       </c>
       <c r="E53">
-        <v>9.0891075000000002E-2</v>
+        <v>0.11036241163857501</v>
       </c>
       <c r="F53">
-        <v>460253913</v>
+        <v>989760574.03139699</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>989760574.03139699</v>
+      </c>
+      <c r="N53">
+        <v>0.11036241163857501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -2663,22 +2960,28 @@
         <v>8</v>
       </c>
       <c r="D54">
-        <v>7821697566</v>
+        <v>7104581119.7623701</v>
       </c>
       <c r="E54">
-        <v>8.3340259999999999E-2</v>
+        <v>8.9189606466281199E-2</v>
       </c>
       <c r="F54">
-        <v>500258380.69999999</v>
+        <v>486114181.30062199</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>486114181.30062199</v>
+      </c>
+      <c r="N54">
+        <v>8.9189606466281199E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2687,22 +2990,28 @@
         <v>8</v>
       </c>
       <c r="D55">
-        <v>7075872202</v>
+        <v>6624938444.9334497</v>
       </c>
       <c r="E55">
-        <v>8.5962278000000003E-2</v>
+        <v>9.0503267361003198E-2</v>
       </c>
       <c r="F55">
-        <v>465133121.30000001</v>
+        <v>458153040.98400098</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="M55">
+        <v>458153040.98400098</v>
+      </c>
+      <c r="N55">
+        <v>9.0503267361003198E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2711,22 +3020,28 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>6587968729</v>
+        <v>7810786373.24753</v>
       </c>
       <c r="E56">
-        <v>0.107557587</v>
+        <v>8.3039266419595997E-2</v>
       </c>
       <c r="F56">
-        <v>549671042.39999998</v>
+        <v>498652184.51859701</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="M56">
+        <v>498652184.51859701</v>
+      </c>
+      <c r="N56">
+        <v>8.3039266419595997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2735,22 +3050,28 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <v>3909628116</v>
+        <v>7063473567.5640697</v>
       </c>
       <c r="E57">
-        <v>7.9558080000000003E-2</v>
+        <v>8.5712129817683294E-2</v>
       </c>
       <c r="F57">
-        <v>240972897.09999999</v>
+        <v>463776657.05913401</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>463776657.05913401</v>
+      </c>
+      <c r="N57">
+        <v>8.5712129817683294E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2759,22 +3080,28 @@
         <v>8</v>
       </c>
       <c r="D58">
-        <v>4341240287</v>
+        <v>6570776616.5419798</v>
       </c>
       <c r="E58">
-        <v>8.1525380999999994E-2</v>
+        <v>0.10702907996934399</v>
       </c>
       <c r="F58">
-        <v>275814556.5</v>
+        <v>546477522.717314</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>546477522.717314</v>
+      </c>
+      <c r="N58">
+        <v>0.10702907996934399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2783,22 +3110,28 @@
         <v>8</v>
       </c>
       <c r="D59">
-        <v>3308970097</v>
+        <v>3911101449.7285199</v>
       </c>
       <c r="E59">
-        <v>8.0576013000000002E-2</v>
+        <v>7.9478709332498093E-2</v>
       </c>
       <c r="F59">
-        <v>204404021.40000001</v>
+        <v>241244612.713943</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="M59">
+        <v>241244612.713943</v>
+      </c>
+      <c r="N59">
+        <v>7.9478709332498093E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2807,22 +3140,28 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>5581437391</v>
+        <v>4331676446.3847904</v>
       </c>
       <c r="E60">
-        <v>9.6134379000000006E-2</v>
+        <v>8.1089053736089406E-2</v>
       </c>
       <c r="F60">
-        <v>402050295.30000001</v>
+        <v>274211320.88723898</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>274211320.88723898</v>
+      </c>
+      <c r="N60">
+        <v>8.1089053736089406E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2831,22 +3170,28 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <v>7183418426</v>
+        <v>3301735257.4128699</v>
       </c>
       <c r="E61">
-        <v>9.2419293999999999E-2</v>
+        <v>8.03354372471837E-2</v>
       </c>
       <c r="F61">
-        <v>509729421.10000002</v>
+        <v>203696477.30741099</v>
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="M61">
+        <v>203696477.30741099</v>
+      </c>
+      <c r="N61">
+        <v>8.03354372471837E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2855,22 +3200,28 @@
         <v>8</v>
       </c>
       <c r="D62">
-        <v>6034862687</v>
+        <v>5574176668.9256001</v>
       </c>
       <c r="E62">
-        <v>8.6192183000000006E-2</v>
+        <v>9.5931204849237894E-2</v>
       </c>
       <c r="F62">
-        <v>399073956.19999999</v>
+        <v>401186468.50570601</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <v>401186468.50570601</v>
+      </c>
+      <c r="N62">
+        <v>9.5931204849237894E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2879,22 +3230,28 @@
         <v>8</v>
       </c>
       <c r="D63">
-        <v>6657220792</v>
+        <v>7179201151.4758701</v>
       </c>
       <c r="E63">
-        <v>7.5903383000000005E-2</v>
+        <v>9.2386187748729601E-2</v>
       </c>
       <c r="F63">
-        <v>392347479.10000002</v>
+        <v>510174945.50136799</v>
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>510174945.50136799</v>
+      </c>
+      <c r="N63">
+        <v>9.2386187748729601E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2903,22 +3260,28 @@
         <v>8</v>
       </c>
       <c r="D64">
-        <v>10919516281</v>
+        <v>6022083456.2249699</v>
       </c>
       <c r="E64">
-        <v>9.0874181999999998E-2</v>
+        <v>8.6015007980533298E-2</v>
       </c>
       <c r="F64">
-        <v>761999875.5</v>
+        <v>398139519.286659</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>398139519.286659</v>
+      </c>
+      <c r="N64">
+        <v>8.6015007980533298E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2927,22 +3290,28 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <v>5290930098</v>
+        <v>6644050942.0366297</v>
       </c>
       <c r="E65">
-        <v>8.3065022000000002E-2</v>
+        <v>7.5548994591567498E-2</v>
       </c>
       <c r="F65">
-        <v>338914371.5</v>
+        <v>390398414.05699003</v>
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="M65">
+        <v>390398414.05699003</v>
+      </c>
+      <c r="N65">
+        <v>7.5548994591567498E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2951,22 +3320,28 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>6866013459</v>
+        <v>10894593275.9498</v>
       </c>
       <c r="E66">
-        <v>8.7938188E-2</v>
+        <v>9.0400557932894393E-2</v>
       </c>
       <c r="F66">
-        <v>463855885.69999999</v>
+        <v>757607400.57298601</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>757607400.57298601</v>
+      </c>
+      <c r="N66">
+        <v>9.0400557932894393E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2975,22 +3350,28 @@
         <v>8</v>
       </c>
       <c r="D67">
-        <v>4168807180</v>
+        <v>5301217194.2744598</v>
       </c>
       <c r="E67">
-        <v>8.4529455000000003E-2</v>
+        <v>8.3013058401950293E-2</v>
       </c>
       <c r="F67">
-        <v>271578624.30000001</v>
+        <v>339939120.67131698</v>
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="M67">
+        <v>339939120.67131698</v>
+      </c>
+      <c r="N67">
+        <v>8.3013058401950293E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2999,22 +3380,28 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>6736452521</v>
+        <v>6853414669.3297396</v>
       </c>
       <c r="E68">
-        <v>0.106626572</v>
+        <v>8.7595561910547196E-2</v>
       </c>
       <c r="F68">
-        <v>542669086.79999995</v>
+        <v>461997565.476201</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <v>461997565.476201</v>
+      </c>
+      <c r="N68">
+        <v>8.7595561910547196E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -3023,22 +3410,28 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <v>4257815898</v>
+        <v>4165768319.9742198</v>
       </c>
       <c r="E69">
-        <v>0.10441753099999999</v>
+        <v>8.4324695145782599E-2</v>
       </c>
       <c r="F69">
-        <v>334919258.5</v>
+        <v>271148466.06510103</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>271148466.06510103</v>
+      </c>
+      <c r="N69">
+        <v>8.4324695145782599E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -3047,22 +3440,28 @@
         <v>8</v>
       </c>
       <c r="D70">
-        <v>2803845260</v>
+        <v>6731488051.1504297</v>
       </c>
       <c r="E70">
-        <v>0.10637635600000001</v>
+        <v>0.106286383420354</v>
       </c>
       <c r="F70">
-        <v>228480429.09999999</v>
+        <v>541422114.51480901</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>541422114.51480901</v>
+      </c>
+      <c r="N70">
+        <v>0.106286383420354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -3071,22 +3470,28 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>5265174437</v>
+        <v>4256655311.4573698</v>
       </c>
       <c r="E71">
-        <v>0.10197294899999999</v>
+        <v>0.10408848197805499</v>
       </c>
       <c r="F71">
-        <v>413194822.10000002</v>
+        <v>334320049.81179899</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="M71">
+        <v>334320049.81179899</v>
+      </c>
+      <c r="N71">
+        <v>0.10408848197805499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -3095,22 +3500,28 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>4426723146</v>
+        <v>2799142255.7128201</v>
       </c>
       <c r="E72">
-        <v>9.4878272E-2</v>
+        <v>0.105895573546455</v>
       </c>
       <c r="F72">
-        <v>318340216.19999999</v>
+        <v>227419941.72311899</v>
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="M72">
+        <v>227419941.72311899</v>
+      </c>
+      <c r="N72">
+        <v>0.105895573546455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -3119,22 +3530,28 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <v>5037554343</v>
+        <v>5250260964.7565699</v>
       </c>
       <c r="E73">
-        <v>8.6122940999999995E-2</v>
+        <v>0.10182921419213101</v>
       </c>
       <c r="F73">
-        <v>329257217.39999998</v>
+        <v>412114046.37932998</v>
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="M73">
+        <v>412114046.37932998</v>
+      </c>
+      <c r="N73">
+        <v>0.10182921419213101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -3143,22 +3560,28 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>6602485781</v>
+        <v>4424373673.9294901</v>
       </c>
       <c r="E74">
-        <v>8.4931853000000002E-2</v>
+        <v>9.4631035830448795E-2</v>
       </c>
       <c r="F74">
-        <v>432671273.5</v>
+        <v>317892787.71481699</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="M74">
+        <v>317892787.71481699</v>
+      </c>
+      <c r="N74">
+        <v>9.4631035830448795E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -3167,22 +3590,28 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>11211884075</v>
+        <v>5023496466.8604202</v>
       </c>
       <c r="E75">
-        <v>7.2854797999999998E-2</v>
+        <v>8.5680034959871601E-2</v>
       </c>
       <c r="F75">
-        <v>629846885.70000005</v>
+        <v>327110970.33488601</v>
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>327110970.33488601</v>
+      </c>
+      <c r="N75">
+        <v>8.5680034959871601E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -3191,22 +3620,28 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>10290220226</v>
+        <v>6575573699.6651001</v>
       </c>
       <c r="E76">
-        <v>7.4582772000000006E-2</v>
+        <v>8.4558369663439395E-2</v>
       </c>
       <c r="F76">
-        <v>586802654.60000002</v>
+        <v>429744453.55927402</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="M76">
+        <v>429744453.55927402</v>
+      </c>
+      <c r="N76">
+        <v>8.4558369663439395E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -3215,22 +3650,28 @@
         <v>8</v>
       </c>
       <c r="D77">
-        <v>7063379608</v>
+        <v>11181986542.8214</v>
       </c>
       <c r="E77">
-        <v>7.7901944000000001E-2</v>
+        <v>7.2616227298413299E-2</v>
       </c>
       <c r="F77">
-        <v>416092880.5</v>
+        <v>627197728.57369399</v>
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>627197728.57369399</v>
+      </c>
+      <c r="N77">
+        <v>7.2616227298413299E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -3239,22 +3680,28 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>7161002364</v>
+        <v>10271434043.9468</v>
       </c>
       <c r="E78">
-        <v>7.6255242000000001E-2</v>
+        <v>7.4286068690224194E-2</v>
       </c>
       <c r="F78">
-        <v>415381804.30000001</v>
+        <v>584269862.62096906</v>
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>584269862.62096906</v>
+      </c>
+      <c r="N78">
+        <v>7.4286068690224194E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -3263,22 +3710,28 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <v>3931090366</v>
+        <v>7050360943.1969404</v>
       </c>
       <c r="E79">
-        <v>9.0064631000000006E-2</v>
+        <v>7.7752084792663101E-2</v>
       </c>
       <c r="F79">
-        <v>267071444.5</v>
+        <v>415293304.14365</v>
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M79">
+        <v>415293304.14365</v>
+      </c>
+      <c r="N79">
+        <v>7.7752084792663101E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -3287,22 +3740,28 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>7732953858</v>
+        <v>7146978359.6866102</v>
       </c>
       <c r="E80">
-        <v>7.6451724999999998E-2</v>
+        <v>7.6161522342991797E-2</v>
       </c>
       <c r="F80">
-        <v>443352265.39999998</v>
+        <v>414728266.276398</v>
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M80">
+        <v>414728266.276398</v>
+      </c>
+      <c r="N80">
+        <v>7.6161522342991797E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -3311,22 +3770,28 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>4297638945</v>
+        <v>3929191345.0494099</v>
       </c>
       <c r="E81">
-        <v>7.8924953000000006E-2</v>
+        <v>8.9622098465823696E-2</v>
       </c>
       <c r="F81">
-        <v>253546024.59999999</v>
+        <v>265995615.46047199</v>
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M81">
+        <v>265995615.46047199</v>
+      </c>
+      <c r="N81">
+        <v>8.9622098465823696E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -3335,22 +3800,28 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <v>6051028709</v>
+        <v>7705853087.1525698</v>
       </c>
       <c r="E82">
-        <v>8.1751010999999998E-2</v>
+        <v>7.6283739569768597E-2</v>
       </c>
       <c r="F82">
-        <v>380094982.39999998</v>
+        <v>441520004.21914297</v>
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="M82">
+        <v>441520004.21914297</v>
+      </c>
+      <c r="N82">
+        <v>7.6283739569768597E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -3358,119 +3829,134 @@
       <c r="C83" t="s">
         <v>8</v>
       </c>
-      <c r="D83">
-        <v>4451010308</v>
-      </c>
-      <c r="E83">
-        <v>8.2644096E-2</v>
-      </c>
-      <c r="F83">
-        <v>277213068.89999998</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="e">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1982</v>
+        <v>2021</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>15742657.890000001</v>
+        <v>4302514001.0599003</v>
       </c>
       <c r="E84">
-        <v>0.63204807799999996</v>
+        <v>7.9171347886138596E-2</v>
       </c>
       <c r="F84">
-        <v>5496528.5020000003</v>
+        <v>254938075.98069799</v>
       </c>
       <c r="G84">
         <f>RANK(D84,$D$84:$D$124)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>254938075.98069799</v>
+      </c>
+      <c r="N84">
+        <v>7.9171347886138596E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1983</v>
+        <v>2022</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>83134029.810000002</v>
+        <v>6051595200.1290798</v>
       </c>
       <c r="E85">
-        <v>0.54843140499999998</v>
+        <v>8.1689523160469998E-2</v>
       </c>
       <c r="F85">
-        <v>26472413.760000002</v>
+        <v>380426992.89933401</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85:G124" si="4">RANK(D85,$D$84:$D$124)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>380426992.89933401</v>
+      </c>
+      <c r="N85">
+        <v>8.1689523160469998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1984</v>
+        <v>2023</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>16936019.280000001</v>
+        <v>4463944204.3338699</v>
       </c>
       <c r="E86">
-        <v>0.71288916700000005</v>
+        <v>8.1930065207928698E-2</v>
       </c>
       <c r="F86">
-        <v>6397243.9519999996</v>
+        <v>276677709.59984303</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>276677709.59984303</v>
+      </c>
+      <c r="N86">
+        <v>8.1930065207928698E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1985</v>
+        <v>2024</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>60117442.530000001</v>
+        <v>8972432001.3397408</v>
       </c>
       <c r="E87">
-        <v>0.54467063199999999</v>
+        <v>0.104687370796052</v>
       </c>
       <c r="F87">
-        <v>19056766.52</v>
+        <v>706579464.17682099</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>706579464.17682099</v>
+      </c>
+      <c r="N87">
+        <v>0.104687370796052</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -3479,22 +3965,28 @@
         <v>9</v>
       </c>
       <c r="D88">
-        <v>39229816.549999997</v>
+        <v>15710865.926552899</v>
       </c>
       <c r="E88">
-        <v>0.67822115999999999</v>
+        <v>0.627974414668103</v>
       </c>
       <c r="F88">
-        <v>13930098.5</v>
+        <v>5475711.4690753501</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M88">
+        <v>5475711.4690753501</v>
+      </c>
+      <c r="N88">
+        <v>0.627974414668103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -3503,22 +3995,28 @@
         <v>9</v>
       </c>
       <c r="D89">
-        <v>72591911.989999995</v>
+        <v>83087425.679958701</v>
       </c>
       <c r="E89">
-        <v>0.64833151099999997</v>
+        <v>0.54666477834433003</v>
       </c>
       <c r="F89">
-        <v>26087339.940000001</v>
+        <v>26437952.8717307</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M89">
+        <v>26437952.8717307</v>
+      </c>
+      <c r="N89">
+        <v>0.54666477834433003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -3527,22 +4025,28 @@
         <v>9</v>
       </c>
       <c r="D90">
-        <v>115025153.09999999</v>
+        <v>17114160.380138598</v>
       </c>
       <c r="E90">
-        <v>0.24491828500000001</v>
+        <v>0.70843941736119598</v>
       </c>
       <c r="F90">
-        <v>19474091.579999998</v>
+        <v>6445076.5701603796</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="M90">
+        <v>6445076.5701603796</v>
+      </c>
+      <c r="N90">
+        <v>0.70843941736119598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -3551,22 +4055,28 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>69579165.269999996</v>
+        <v>60349424.405942298</v>
       </c>
       <c r="E91">
-        <v>0.55836013699999998</v>
+        <v>0.54234885460153104</v>
       </c>
       <c r="F91">
-        <v>22499687.920000002</v>
+        <v>19092138.920412801</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="M91">
+        <v>19092138.920412801</v>
+      </c>
+      <c r="N91">
+        <v>0.54234885460153104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -3575,22 +4085,28 @@
         <v>9</v>
       </c>
       <c r="D92">
-        <v>26905890.66</v>
+        <v>39533917.974748902</v>
       </c>
       <c r="E92">
-        <v>0.59022844699999999</v>
+        <v>0.67375005692529599</v>
       </c>
       <c r="F92">
-        <v>8931662.9940000009</v>
+        <v>13993224.348763701</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="M92">
+        <v>13993224.348763701</v>
+      </c>
+      <c r="N92">
+        <v>0.67375005692529599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -3599,22 +4115,28 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <v>24908060.850000001</v>
+        <v>73132401.381366402</v>
       </c>
       <c r="E93">
-        <v>0.53593709199999995</v>
+        <v>0.64275868860617702</v>
       </c>
       <c r="F93">
-        <v>7833026.5539999995</v>
+        <v>26177157.9706445</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="M93">
+        <v>26177157.9706445</v>
+      </c>
+      <c r="N93">
+        <v>0.64275868860617702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -3623,22 +4145,28 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>18389059.489999998</v>
+        <v>114179447.511209</v>
       </c>
       <c r="E94">
-        <v>0.69678485300000004</v>
+        <v>0.24392483111204</v>
       </c>
       <c r="F94">
-        <v>6550447.7759999996</v>
+        <v>19296775.457877599</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="M94">
+        <v>19296775.457877599</v>
+      </c>
+      <c r="N94">
+        <v>0.24392483111204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -3647,22 +4175,28 @@
         <v>9</v>
       </c>
       <c r="D95">
-        <v>38450884.579999998</v>
+        <v>69854387.910397097</v>
       </c>
       <c r="E95">
-        <v>0.58214518699999995</v>
+        <v>0.55554530582324002</v>
       </c>
       <c r="F95">
-        <v>12541158.15</v>
+        <v>22552920.902130801</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="M95">
+        <v>22552920.902130801</v>
+      </c>
+      <c r="N95">
+        <v>0.55554530582324002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -3671,22 +4205,28 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>30865381.23</v>
+        <v>27071848.905066501</v>
       </c>
       <c r="E96">
-        <v>0.71860270999999998</v>
+        <v>0.58779037354901198</v>
       </c>
       <c r="F96">
-        <v>11002673.9</v>
+        <v>8973417.5436856803</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="M96">
+        <v>8973417.5436856803</v>
+      </c>
+      <c r="N96">
+        <v>0.58779037354901198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -3695,22 +4235,28 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>26438399.140000001</v>
+        <v>25006062.300725099</v>
       </c>
       <c r="E97">
-        <v>0.68304553800000001</v>
+        <v>0.53457753710408595</v>
       </c>
       <c r="F97">
-        <v>9072781.2119999994</v>
+        <v>7854428.7163704997</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="M97">
+        <v>7854428.7163704997</v>
+      </c>
+      <c r="N97">
+        <v>0.53457753710408595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -3719,22 +4265,28 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <v>43393643.509999998</v>
+        <v>18498651.051825698</v>
       </c>
       <c r="E98">
-        <v>0.55613109800000005</v>
+        <v>0.69351344419824201</v>
       </c>
       <c r="F98">
-        <v>13392576.49</v>
+        <v>6576655.5630096896</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="M98">
+        <v>6576655.5630096896</v>
+      </c>
+      <c r="N98">
+        <v>0.69351344419824201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -3743,22 +4295,28 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>40051904.520000003</v>
+        <v>38483553.5527521</v>
       </c>
       <c r="E99">
-        <v>0.58807332800000001</v>
+        <v>0.58042242642970299</v>
       </c>
       <c r="F99">
-        <v>12634297.789999999</v>
+        <v>12542438.331224799</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <v>12542438.331224799</v>
+      </c>
+      <c r="N99">
+        <v>0.58042242642970299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -3767,22 +4325,28 @@
         <v>9</v>
       </c>
       <c r="D100">
-        <v>117345455.8</v>
+        <v>30961334.179428499</v>
       </c>
       <c r="E100">
-        <v>0.45361106800000001</v>
+        <v>0.71474652610218403</v>
       </c>
       <c r="F100">
-        <v>31663550.460000001</v>
+        <v>11013980.2157453</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="M100">
+        <v>11013980.2157453</v>
+      </c>
+      <c r="N100">
+        <v>0.71474652610218403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3791,22 +4355,28 @@
         <v>9</v>
       </c>
       <c r="D101">
-        <v>39308862.219999999</v>
+        <v>26411135.548851699</v>
       </c>
       <c r="E101">
-        <v>0.96259449600000002</v>
+        <v>0.68054387114821802</v>
       </c>
       <c r="F101">
-        <v>15218985.439999999</v>
+        <v>9053186.4704536404</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="M101">
+        <v>9053186.4704536404</v>
+      </c>
+      <c r="N101">
+        <v>0.68054387114821802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3815,22 +4385,28 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>67716625.579999998</v>
+        <v>43153829.936207399</v>
       </c>
       <c r="E102">
-        <v>0.75394802299999997</v>
+        <v>0.55389309761691596</v>
       </c>
       <c r="F102">
-        <v>24436243.989999998</v>
+        <v>13302327.408663699</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="M102">
+        <v>13302327.408663699</v>
+      </c>
+      <c r="N102">
+        <v>0.55389309761691596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -3839,22 +4415,28 @@
         <v>9</v>
       </c>
       <c r="D103">
-        <v>44681644.490000002</v>
+        <v>39841336.100118697</v>
       </c>
       <c r="E103">
-        <v>0.79747043900000003</v>
+        <v>0.58536082738441597</v>
       </c>
       <c r="F103">
-        <v>17376666.239999998</v>
+        <v>12545786.453918699</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="M103">
+        <v>12545786.453918699</v>
+      </c>
+      <c r="N103">
+        <v>0.58536082738441597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3863,22 +4445,28 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <v>98392942.5</v>
+        <v>115871551.82593399</v>
       </c>
       <c r="E104">
-        <v>0.54199019999999998</v>
+        <v>0.452234624196307</v>
       </c>
       <c r="F104">
-        <v>29050054.079999998</v>
+        <v>31231194.2919637</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="M104">
+        <v>31231194.2919637</v>
+      </c>
+      <c r="N104">
+        <v>0.452234624196307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -3887,22 +4475,28 @@
         <v>9</v>
       </c>
       <c r="D105">
-        <v>350810117.19999999</v>
+        <v>39467524.139658503</v>
       </c>
       <c r="E105">
-        <v>0.52907592699999995</v>
+        <v>0.95787505765306702</v>
       </c>
       <c r="F105">
-        <v>102122002.90000001</v>
+        <v>15241320.4136147</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="M105">
+        <v>15241320.4136147</v>
+      </c>
+      <c r="N105">
+        <v>0.95787505765306702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -3911,22 +4505,28 @@
         <v>9</v>
       </c>
       <c r="D106">
-        <v>201377343.19999999</v>
+        <v>67146593.465229005</v>
       </c>
       <c r="E106">
-        <v>0.54052324100000004</v>
+        <v>0.75079522907700003</v>
       </c>
       <c r="F106">
-        <v>59760047.57</v>
+        <v>24201479.313992299</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="M106">
+        <v>24201479.313992299</v>
+      </c>
+      <c r="N106">
+        <v>0.75079522907700003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -3935,22 +4535,28 @@
         <v>9</v>
       </c>
       <c r="D107">
-        <v>120210964.40000001</v>
+        <v>44486363.800904401</v>
       </c>
       <c r="E107">
-        <v>0.52687400900000003</v>
+        <v>0.79171781364423299</v>
       </c>
       <c r="F107">
-        <v>35535948.030000001</v>
+        <v>17239271.240518998</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="M107">
+        <v>17239271.240518998</v>
+      </c>
+      <c r="N107">
+        <v>0.79171781364423299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -3959,22 +4565,28 @@
         <v>9</v>
       </c>
       <c r="D108">
-        <v>24580394.280000001</v>
+        <v>96552221.111437306</v>
       </c>
       <c r="E108">
-        <v>0.834285151</v>
+        <v>0.539792557459295</v>
       </c>
       <c r="F108">
-        <v>9797138.5010000002</v>
+        <v>28472977.862773798</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="M108">
+        <v>28472977.862773798</v>
+      </c>
+      <c r="N108">
+        <v>0.539792557459295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -3983,22 +4595,28 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <v>46456902.420000002</v>
+        <v>344569654.12422103</v>
       </c>
       <c r="E109">
-        <v>0.80933212399999999</v>
+        <v>0.52588489409660899</v>
       </c>
       <c r="F109">
-        <v>17867553.27</v>
+        <v>100043076.763974</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="M109">
+        <v>100043076.763974</v>
+      </c>
+      <c r="N109">
+        <v>0.52588489409660899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -4007,22 +4625,28 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <v>36897427.909999996</v>
+        <v>198737805.15035099</v>
       </c>
       <c r="E110">
-        <v>0.80200117599999998</v>
+        <v>0.53747109499573797</v>
       </c>
       <c r="F110">
-        <v>13712722.939999999</v>
+        <v>58864992.152052499</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M110">
+        <v>58864992.152052499</v>
+      </c>
+      <c r="N110">
+        <v>0.53747109499573797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -4031,22 +4655,28 @@
         <v>9</v>
       </c>
       <c r="D111">
-        <v>21377539.370000001</v>
+        <v>118966561.984183</v>
       </c>
       <c r="E111">
-        <v>0.71496603999999997</v>
+        <v>0.52310348916622595</v>
       </c>
       <c r="F111">
-        <v>7630795.7529999996</v>
+        <v>35045257.667503797</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="M111">
+        <v>35045257.667503797</v>
+      </c>
+      <c r="N111">
+        <v>0.52310348916622595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -4055,22 +4685,28 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>21394702.539999999</v>
+        <v>24577307.416897502</v>
       </c>
       <c r="E112">
-        <v>0.16078931399999999</v>
+        <v>0.82830459434135695</v>
       </c>
       <c r="F112">
-        <v>2557535.696</v>
+        <v>9763305.5418508891</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M112">
+        <v>9763305.5418508891</v>
+      </c>
+      <c r="N112">
+        <v>0.82830459434135695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -4079,22 +4715,28 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>82961253.75</v>
+        <v>45964218.751105703</v>
       </c>
       <c r="E113">
-        <v>0.63387668500000005</v>
+        <v>0.80406384032677103</v>
       </c>
       <c r="F113">
-        <v>28987996.93</v>
+        <v>17625831.963041399</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M113">
+        <v>17625831.963041399</v>
+      </c>
+      <c r="N113">
+        <v>0.80406384032677103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -4103,22 +4745,28 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>120998681.2</v>
+        <v>36605678.3893907</v>
       </c>
       <c r="E114">
-        <v>0.92037663599999997</v>
+        <v>0.79576027660913795</v>
       </c>
       <c r="F114">
-        <v>47974382.100000001</v>
+        <v>13547295.1817027</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="M114">
+        <v>13547295.1817027</v>
+      </c>
+      <c r="N114">
+        <v>0.79576027660913795</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -4127,22 +4775,28 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <v>137458765.30000001</v>
+        <v>21073247.5576136</v>
       </c>
       <c r="E115">
-        <v>0.80002918300000003</v>
+        <v>0.70717685990978496</v>
       </c>
       <c r="F115">
-        <v>51999927.060000002</v>
+        <v>7483060.1537253102</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="M115">
+        <v>7483060.1537253102</v>
+      </c>
+      <c r="N115">
+        <v>0.70717685990978496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -4151,22 +4805,28 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <v>436410902.39999998</v>
+        <v>21358751.8707259</v>
       </c>
       <c r="E116">
-        <v>0.68820422400000003</v>
+        <v>0.160046060267718</v>
       </c>
       <c r="F116">
-        <v>151712819.30000001</v>
+        <v>2545949.8258801899</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="M116">
+        <v>2545949.8258801899</v>
+      </c>
+      <c r="N116">
+        <v>0.160046060267718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -4175,22 +4835,28 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <v>945238875.5</v>
+        <v>81615670.870280296</v>
       </c>
       <c r="E117">
-        <v>0.60654300400000005</v>
+        <v>0.62756923176429802</v>
       </c>
       <c r="F117">
-        <v>298698007.69999999</v>
+        <v>28380644.828041699</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="M117">
+        <v>28380644.828041699</v>
+      </c>
+      <c r="N117">
+        <v>0.62756923176429802</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -4199,22 +4865,28 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>1218899848</v>
+        <v>120896838.825248</v>
       </c>
       <c r="E118">
-        <v>0.536013768</v>
+        <v>0.91330466173385305</v>
       </c>
       <c r="F118">
-        <v>360647749.69999999</v>
+        <v>47711748.469045199</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="M118">
+        <v>47711748.469045199</v>
+      </c>
+      <c r="N118">
+        <v>0.91330466173385305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -4223,22 +4895,28 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>1712860772</v>
+        <v>137016066.246806</v>
       </c>
       <c r="E119">
-        <v>0.13532197100000001</v>
+        <v>0.79298349585618499</v>
       </c>
       <c r="F119">
-        <v>176774656.80000001</v>
+        <v>51579790.034298599</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="M119">
+        <v>51579790.034298599</v>
+      </c>
+      <c r="N119">
+        <v>0.79298349585618499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -4247,22 +4925,28 @@
         <v>9</v>
       </c>
       <c r="D120">
-        <v>327335793.89999998</v>
+        <v>434524057.79485601</v>
       </c>
       <c r="E120">
-        <v>0.509927397</v>
+        <v>0.68263872246039103</v>
       </c>
       <c r="F120">
-        <v>99652024.859999999</v>
+        <v>150502781.017672</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="M120">
+        <v>150502781.017672</v>
+      </c>
+      <c r="N120">
+        <v>0.68263872246039103</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -4271,22 +4955,28 @@
         <v>9</v>
       </c>
       <c r="D121">
-        <v>1555197139</v>
+        <v>944272808.71756601</v>
       </c>
       <c r="E121">
-        <v>0.11458304699999999</v>
+        <v>0.60221859184528204</v>
       </c>
       <c r="F121">
-        <v>133736058.2</v>
+        <v>297618928.86584198</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="M121">
+        <v>297618928.86584198</v>
+      </c>
+      <c r="N121">
+        <v>0.60221859184528204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -4295,22 +4985,28 @@
         <v>9</v>
       </c>
       <c r="D122">
-        <v>587889572.89999998</v>
+        <v>1224147757.2800601</v>
       </c>
       <c r="E122">
-        <v>0.12769752100000001</v>
+        <v>0.53212058571566501</v>
       </c>
       <c r="F122">
-        <v>56647603.219999999</v>
+        <v>361719395.24046898</v>
       </c>
       <c r="G122">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <v>361719395.24046898</v>
+      </c>
+      <c r="N122">
+        <v>0.53212058571566501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -4319,22 +5015,28 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>480942685.30000001</v>
+        <v>1708063798.62289</v>
       </c>
       <c r="E123">
-        <v>0.12679600899999999</v>
+        <v>0.134684727859538</v>
       </c>
       <c r="F123">
-        <v>46257552.649999999</v>
+        <v>175741660.98542401</v>
       </c>
       <c r="G123">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>175741660.98542401</v>
+      </c>
+      <c r="N123">
+        <v>0.134684727859538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -4343,17 +5045,161 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <v>483248091.60000002</v>
+        <v>337684020.79545599</v>
       </c>
       <c r="E124">
-        <v>0.152167676</v>
+        <v>0.50768570228412302</v>
       </c>
       <c r="F124">
-        <v>53658950.399999999</v>
+        <v>102895090.89932799</v>
       </c>
       <c r="G124">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="M124">
+        <v>102895090.89932799</v>
+      </c>
+      <c r="N124">
+        <v>0.50768570228412302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2019</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>1551566265.26489</v>
+      </c>
+      <c r="E125">
+        <v>0.114181482916227</v>
+      </c>
+      <c r="F125">
+        <v>133159244.73015</v>
+      </c>
+      <c r="M125">
+        <v>133159244.73015</v>
+      </c>
+      <c r="N125">
+        <v>0.114181482916227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2020</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>310836.21840241202</v>
+      </c>
+      <c r="E126">
+        <v>1.0010285137700301</v>
+      </c>
+      <c r="F126">
+        <v>154923.621046391</v>
+      </c>
+      <c r="M126">
+        <v>154923.621046391</v>
+      </c>
+      <c r="N126">
+        <v>1.0010285137700301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2021</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>586648546.27223396</v>
+      </c>
+      <c r="E127">
+        <v>0.12737856344197901</v>
+      </c>
+      <c r="F127">
+        <v>56485869.747740097</v>
+      </c>
+      <c r="M127">
+        <v>56485869.747740097</v>
+      </c>
+      <c r="N127">
+        <v>0.12737856344197901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2022</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>479836888.562451</v>
+      </c>
+      <c r="E128">
+        <v>0.126388659540735</v>
+      </c>
+      <c r="F128">
+        <v>46091530.910554796</v>
+      </c>
+      <c r="M128">
+        <v>46091530.910554796</v>
+      </c>
+      <c r="N128">
+        <v>0.126388659540735</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2023</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>481443326.68001801</v>
+      </c>
+      <c r="E129">
+        <v>0.15165144732823099</v>
+      </c>
+      <c r="F129">
+        <v>53396007.187636502</v>
+      </c>
+      <c r="M129">
+        <v>53396007.187636502</v>
+      </c>
+      <c r="N129">
+        <v>0.15165144732823099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2024</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>435031569.55585301</v>
+      </c>
+      <c r="E130">
+        <v>0.58031783676034598</v>
+      </c>
+      <c r="F130">
+        <v>131011806.891761</v>
+      </c>
+      <c r="M130">
+        <v>131011806.891761</v>
+      </c>
+      <c r="N130">
+        <v>0.58031783676034598</v>
       </c>
     </row>
   </sheetData>
